--- a/example/test.xlsx
+++ b/example/test.xlsx
@@ -586,7 +586,7 @@
         <v/>
       </c>
       <c r="L5" t="str">
-        <v/>
+        <v>enum:10,11,12</v>
       </c>
     </row>
     <row r="6">
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="L7" t="str">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" t="str">
         <v>12</v>

--- a/example/test.xlsx
+++ b/example/test.xlsx
@@ -1,58 +1,581 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+  <si>
+    <t>__type__</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>int8</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>uint</t>
+  </si>
+  <si>
+    <t>uint8</t>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint64</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>array:int</t>
+  </si>
+  <si>
+    <t>array2:string</t>
+  </si>
+  <si>
+    <t>map:int,string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>enum:Weekday</t>
+  </si>
+  <si>
+    <t>__name__</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>i32</t>
+  </si>
+  <si>
+    <t>i64</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>u8</t>
+  </si>
+  <si>
+    <t>u32</t>
+  </si>
+  <si>
+    <t>u64</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>__side__</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>__desc__</t>
+  </si>
+  <si>
+    <t>一个int类型值</t>
+  </si>
+  <si>
+    <t>__rule__</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>range[1,10]</t>
+  </si>
+  <si>
+    <t>range[-255,255)</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>[[13]]</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>"Hello Alpaca"</t>
+  </si>
+  <si>
+    <t>{1:"nico",2:susu}</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,18 +583,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,301 +1208,327 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <cols>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="15" max="15" width="18.875" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>__type__</v>
-      </c>
-      <c r="B1" t="str">
-        <v>int</v>
-      </c>
-      <c r="C1" t="str">
-        <v>int8</v>
-      </c>
-      <c r="D1" t="str">
-        <v>int32</v>
-      </c>
-      <c r="E1" t="str">
-        <v>int64</v>
-      </c>
-      <c r="F1" t="str">
-        <v>uint</v>
-      </c>
-      <c r="G1" t="str">
-        <v>uint8</v>
-      </c>
-      <c r="H1" t="str">
-        <v>uint32</v>
-      </c>
-      <c r="I1" t="str">
-        <v>uint64</v>
-      </c>
-      <c r="J1" t="str">
-        <v>float</v>
-      </c>
-      <c r="K1" t="str">
-        <v>double</v>
-      </c>
-      <c r="L1" t="str">
-        <v>string</v>
-      </c>
-      <c r="M1" t="str">
-        <v>array:int</v>
-      </c>
-      <c r="N1" t="str">
-        <v>array2:string</v>
-      </c>
-      <c r="O1" t="str">
-        <v>map:int,string</v>
-      </c>
-      <c r="P1" t="str">
-        <v>bool</v>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>__name__</v>
-      </c>
-      <c r="B2" t="str">
-        <v>i</v>
-      </c>
-      <c r="C2" t="str">
-        <v>i8</v>
-      </c>
-      <c r="D2" t="str">
-        <v>i32</v>
-      </c>
-      <c r="E2" t="str">
-        <v>i64</v>
-      </c>
-      <c r="F2" t="str">
-        <v>u</v>
-      </c>
-      <c r="G2" t="str">
-        <v>u8</v>
-      </c>
-      <c r="H2" t="str">
-        <v>u32</v>
-      </c>
-      <c r="I2" t="str">
-        <v>u64</v>
-      </c>
-      <c r="J2" t="str">
-        <v>f</v>
-      </c>
-      <c r="K2" t="str">
-        <v>d</v>
-      </c>
-      <c r="L2" t="str">
-        <v>s</v>
-      </c>
-      <c r="M2" t="str">
-        <v>a</v>
-      </c>
-      <c r="N2" t="str">
-        <v>a2</v>
-      </c>
-      <c r="O2" t="str">
-        <v>m</v>
-      </c>
-      <c r="P2" t="str">
-        <v>b</v>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>__side__</v>
-      </c>
-      <c r="B3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="C3" t="str">
-        <v>c</v>
-      </c>
-      <c r="D3" t="str">
-        <v>s</v>
-      </c>
-      <c r="E3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="F3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="G3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="H3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="I3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="J3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="K3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="L3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="M3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="N3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="O3" t="str">
-        <v>cs</v>
-      </c>
-      <c r="P3" t="str">
-        <v>cs</v>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>__desc__</v>
-      </c>
-      <c r="B4" t="str">
-        <v>一个int类型值</v>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>__rule__</v>
-      </c>
-      <c r="B5" t="str">
-        <v>key</v>
-      </c>
-      <c r="C5" t="str">
-        <v>unique</v>
-      </c>
-      <c r="D5" t="str">
-        <v>range[1,10]</v>
-      </c>
-      <c r="E5" t="str">
-        <v>range[-255,255)</v>
-      </c>
-      <c r="G5" t="str">
-        <v>require</v>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <v>enum:10,11,12</v>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>1</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2</v>
-      </c>
-      <c r="D6" t="str">
-        <v>3</v>
-      </c>
-      <c r="E6" t="str">
-        <v>4</v>
-      </c>
-      <c r="F6" t="str">
-        <v>5</v>
-      </c>
-      <c r="G6" t="str">
-        <v>6</v>
-      </c>
-      <c r="H6" t="str">
-        <v>7</v>
-      </c>
-      <c r="I6" t="str">
-        <v>8</v>
-      </c>
-      <c r="J6" t="str">
-        <v>9</v>
-      </c>
-      <c r="K6" t="str">
-        <v>10</v>
-      </c>
-      <c r="L6" t="str">
-        <v>11</v>
-      </c>
-      <c r="M6" t="str">
-        <v>12</v>
-      </c>
-      <c r="N6" t="str">
-        <v>[[13]]</v>
-      </c>
-      <c r="O6" t="str">
-        <v>14</v>
-      </c>
-      <c r="P6" t="str">
-        <v>1</v>
+    <row r="6" spans="2:17">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>2</v>
-      </c>
-      <c r="C7" t="str">
-        <v>3</v>
-      </c>
-      <c r="D7" t="str">
-        <v>3</v>
-      </c>
-      <c r="E7" t="str">
-        <v>4</v>
-      </c>
-      <c r="F7" t="str">
-        <v>5</v>
-      </c>
-      <c r="G7" t="str">
-        <v>6</v>
-      </c>
-      <c r="H7" t="str">
-        <v>7</v>
-      </c>
-      <c r="I7" t="str">
-        <v>8</v>
-      </c>
-      <c r="J7" t="str">
-        <v>9</v>
-      </c>
-      <c r="K7" t="str">
-        <v>10</v>
-      </c>
-      <c r="L7" t="str">
-        <v>13</v>
-      </c>
-      <c r="M7" t="str">
-        <v>12</v>
-      </c>
-      <c r="N7" t="str">
-        <v>[[13]]</v>
-      </c>
-      <c r="O7" t="str">
-        <v>{1:"nico",2:susu}</v>
-      </c>
-      <c r="P7" t="str">
-        <v>0</v>
+    <row r="7" spans="2:17">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P7"/>
+    <ignoredError sqref="A1:P4 A5:K5 M5:P5 A6:K6 M6:P6 A7:K7 M7:P7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/test.xlsx
+++ b/example/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>__type__</t>
   </si>
@@ -67,6 +67,9 @@
     <t>enum:Weekday</t>
   </si>
   <si>
+    <t>array:map:int,string</t>
+  </si>
+  <si>
     <t>__name__</t>
   </si>
   <si>
@@ -118,6 +121,9 @@
     <t>weekday</t>
   </si>
   <si>
+    <t>nested</t>
+  </si>
+  <si>
     <t>__side__</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>一个int类型值</t>
   </si>
   <si>
+    <t>嵌套类型</t>
+  </si>
+  <si>
     <t>__rule__</t>
   </si>
   <si>
@@ -199,7 +208,10 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>"Hello Alpaca"</t>
+    <t>[{1:"Happy",2:"Smile"}]</t>
+  </si>
+  <si>
+    <t>"你好 Alpaca"</t>
   </si>
   <si>
     <t>{1:"nico",2:susu}</t>
@@ -209,6 +221,9 @@
   </si>
   <si>
     <t>Friday</t>
+  </si>
+  <si>
+    <t>[{-1:"开心",-2:"笑"}]</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1229,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1229,9 +1244,10 @@
     <col min="14" max="14" width="18.125" customWidth="1"/>
     <col min="15" max="15" width="18.875" customWidth="1"/>
     <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1283,245 +1299,263 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:18">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="J6" t="s">
+      <c r="G7" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="H7" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="M6" t="s">
+      <c r="J7" t="s">
         <v>57</v>
       </c>
-      <c r="N6" t="s">
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="O6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
-      </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q7" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/example/test.xlsx
+++ b/example/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>__type__</t>
   </si>
@@ -73,64 +73,67 @@
     <t>__name__</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>i8</t>
-  </si>
-  <si>
-    <t>i32</t>
-  </si>
-  <si>
-    <t>i64</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>u8</t>
-  </si>
-  <si>
-    <t>u32</t>
-  </si>
-  <si>
-    <t>u64</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>csInt</t>
+  </si>
+  <si>
+    <t>cliInt8</t>
+  </si>
+  <si>
+    <t>srvInt32</t>
+  </si>
+  <si>
+    <t>csInt64</t>
+  </si>
+  <si>
+    <t>csUint</t>
+  </si>
+  <si>
+    <t>csUint8</t>
+  </si>
+  <si>
+    <t>cliUint32</t>
+  </si>
+  <si>
+    <t>cliUint64</t>
+  </si>
+  <si>
+    <t>srvFloat</t>
+  </si>
+  <si>
+    <t>srvDouble</t>
+  </si>
+  <si>
+    <t>allString</t>
+  </si>
+  <si>
+    <t>csArray</t>
+  </si>
+  <si>
+    <t>csArray2</t>
+  </si>
+  <si>
+    <t>csMap</t>
+  </si>
+  <si>
+    <t>csBool</t>
+  </si>
+  <si>
+    <t>csEnum</t>
+  </si>
+  <si>
+    <t>csNested</t>
+  </si>
+  <si>
+    <t>__side__</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>weekday</t>
-  </si>
-  <si>
-    <t>nested</t>
-  </si>
-  <si>
-    <t>__side__</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>__desc__</t>
@@ -1232,13 +1235,15 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="15.25" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="18.125" customWidth="1"/>
@@ -1370,7 +1375,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1382,20 +1387,18 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="L3"/>
       <c r="M3" t="s">
         <v>37</v>
       </c>
@@ -1417,152 +1420,152 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" t="s">
-        <v>49</v>
-      </c>
       <c r="Q6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:P4 A5:K5 M5:P5 A6:K6 M6:P6 A7:K7 M7:P7" numberStoredAsText="1"/>
+    <ignoredError sqref="M7:P7 A7:K7 M6:P6 A6:K6 M5:P5 A5:K5 A1:P1 A2 A3:G3 M3:P3 A4:P4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/test.xlsx
+++ b/example/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>__type__</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>uint8</t>
+  </si>
+  <si>
+    <t>测试无name列</t>
   </si>
   <si>
     <t>uint32</t>
@@ -847,8 +850,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1232,27 +1238,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="15.25" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
-    <col min="18" max="18" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1"/>
+    <col min="16" max="16" width="18.875" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1281,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1307,32 +1314,33 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
         <v>25</v>
       </c>
+      <c r="H2" s="1"/>
       <c r="I2" t="s">
         <v>26</v>
       </c>
@@ -1363,120 +1371,123 @@
       <c r="R2" t="s">
         <v>35</v>
       </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
       </c>
       <c r="J3" t="s">
         <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" t="s">
         <v>42</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" t="s">
-        <v>49</v>
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:19">
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" t="s">
         <v>56</v>
       </c>
+      <c r="H6" s="1"/>
       <c r="I6" t="s">
         <v>57</v>
       </c>
@@ -1499,37 +1510,38 @@
         <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="R6" t="s">
         <v>65</v>
       </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:19">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
         <v>56</v>
       </c>
+      <c r="H7" s="1"/>
       <c r="I7" t="s">
         <v>57</v>
       </c>
@@ -1540,16 +1552,16 @@
         <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
         <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s">
         <v>68</v>
@@ -1560,12 +1572,45 @@
       <c r="R7" t="s">
         <v>70</v>
       </c>
+      <c r="S7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:H16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="M7:P7 A7:K7 M6:P6 A6:K6 M5:P5 A5:K5 A1:P1 A2 A3:G3 M3:P3 A4:P4" numberStoredAsText="1"/>
+    <ignoredError sqref="I1:Q1 I4:Q4 I7:L7 I6:L6 I5:L5 A4:G4 N3:Q3 A3:G3 A2 A1:G1 A5:G5 N5:Q5 A6:G6 N6:Q6 A7:G7 N7:Q7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/test.xlsx
+++ b/example/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>__type__</t>
   </si>
@@ -40,6 +40,15 @@
     <t>测试无name列</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>array:datetime</t>
+  </si>
+  <si>
+    <t>map:int,datetime</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -94,6 +103,15 @@
     <t>csUint8</t>
   </si>
   <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>timeArr</t>
+  </si>
+  <si>
+    <t>mapDate</t>
+  </si>
+  <si>
     <t>cliUint32</t>
   </si>
   <si>
@@ -145,6 +163,9 @@
     <t>一个int类型值</t>
   </si>
   <si>
+    <t>时间类型</t>
+  </si>
+  <si>
     <t>嵌套类型</t>
   </si>
   <si>
@@ -185,6 +206,15 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>1992-10-01 20:10:59</t>
+  </si>
+  <si>
+    <t>[1992-10-01 20:10:59,2025-01-01]</t>
+  </si>
+  <si>
+    <t>{1:1992-10-01 20:10:59}</t>
   </si>
   <si>
     <t>7</t>
@@ -850,9 +880,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,10 +1272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1249,17 +1283,20 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="15.25" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1"/>
-    <col min="16" max="16" width="18.875" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="23.25" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.625" customWidth="1"/>
+    <col min="11" max="11" width="33.25" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="16" max="16" width="15.25" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="18.125" customWidth="1"/>
+    <col min="19" max="19" width="18.875" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1281,16 +1318,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1317,291 +1354,365 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
         <v>28</v>
       </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="S4" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="V4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:22">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="U6" t="s">
+        <v>75</v>
+      </c>
+      <c r="V6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="M6" t="s">
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
         <v>61</v>
       </c>
-      <c r="N6" t="s">
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="O6" t="s">
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="P6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" t="s">
-        <v>66</v>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" t="s">
-        <v>71</v>
-      </c>
+    <row r="8" spans="8:11">
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
-    <row r="8" spans="8:8">
-      <c r="H8" s="1"/>
+    <row r="9" spans="8:11">
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
-    <row r="9" spans="8:8">
-      <c r="H9" s="1"/>
+    <row r="10" spans="8:11">
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
-    <row r="10" spans="8:8">
-      <c r="H10" s="1"/>
+    <row r="11" spans="8:11">
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
-    <row r="11" spans="8:8">
-      <c r="H11" s="1"/>
+    <row r="12" spans="8:11">
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
-    <row r="12" spans="8:8">
-      <c r="H12" s="1"/>
+    <row r="13" spans="8:11">
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
-    <row r="13" spans="8:8">
-      <c r="H13" s="1"/>
+    <row r="14" spans="8:11">
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
-    <row r="14" spans="8:8">
-      <c r="H14" s="1"/>
+    <row r="15" spans="8:11">
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
-    <row r="15" spans="8:8">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="8:8">
-      <c r="H16" s="1"/>
+    <row r="16" spans="8:11">
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1610,7 +1721,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I1:Q1 I4:Q4 I7:L7 I6:L6 I5:L5 A4:G4 N3:Q3 A3:G3 A2 A1:G1 A5:G5 N5:Q5 A6:G6 N6:Q6 A7:G7 N7:Q7" numberStoredAsText="1"/>
+    <ignoredError sqref="L1:T1 L4:T4 L7:O7 L6:O6 L5:O5 A4:G4 Q3:T3 A3:G3 A2 A1:G1 A5:G5 Q5:T5 A6:G6 Q6:T6 A7:G7 Q7:T7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>